--- a/INT-Lab/b6.xlsx
+++ b/INT-Lab/b6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="12210"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1012,16 +1012,16 @@
   <sheetPr/>
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.9090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.9083333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.8181818181818" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.8166666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
   </cols>
@@ -1164,21 +1164,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:1">
       <c r="A25" s="2">
         <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.0005387</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.0027703</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.00595590000000001</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.0338823000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2659,7 +2647,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2676,7 +2664,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
